--- a/admin/uploads/test - Copy.xlsx
+++ b/admin/uploads/test - Copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\BTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\BTL\admin\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,6 +26,276 @@
     <t>$2y$10$rCpnHGtra.axVLHRJS1fMOdyofMUPeIamkwIHR10H7u1tVB1CptkW</t>
   </si>
   <si>
+    <t>quanly1@mail.com</t>
+  </si>
+  <si>
+    <t>quanly2@mail.com</t>
+  </si>
+  <si>
+    <t>quanly3@mail.com</t>
+  </si>
+  <si>
+    <t>quanly4@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien30@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien29@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien28@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien27@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien26@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien25@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien24@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien23@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien22@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien21@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien20@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien19@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien18@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien17@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien16@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien15@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien14@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien13@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien12@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien11@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien10@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien9@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien8@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien7@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien6@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien5@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien4@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien3@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien2@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien1@mail.com</t>
+  </si>
+  <si>
+    <t>admin38@mail.com</t>
+  </si>
+  <si>
+    <t>admin37@mail.com</t>
+  </si>
+  <si>
+    <t>admin36@mail.com</t>
+  </si>
+  <si>
+    <t>admin35@mail.com</t>
+  </si>
+  <si>
+    <t>admin34@mail.com</t>
+  </si>
+  <si>
+    <t>admin33@mail.com</t>
+  </si>
+  <si>
+    <t>admin32@mail.com</t>
+  </si>
+  <si>
+    <t>admin31@mail.com</t>
+  </si>
+  <si>
+    <t>admin30@mail.com</t>
+  </si>
+  <si>
+    <t>admin29@mail.com</t>
+  </si>
+  <si>
+    <t>quanly5@mail.com</t>
+  </si>
+  <si>
+    <t>quanly6@mail.com</t>
+  </si>
+  <si>
+    <t>quanly7@mail.com</t>
+  </si>
+  <si>
+    <t>quanly8@mail.com</t>
+  </si>
+  <si>
+    <t>quanly9@mail.com</t>
+  </si>
+  <si>
+    <t>admin28@mail.com</t>
+  </si>
+  <si>
+    <t>admin27@mail.com</t>
+  </si>
+  <si>
+    <t>admin26@mail.com</t>
+  </si>
+  <si>
+    <t>admin25@mail.com</t>
+  </si>
+  <si>
+    <t>admin24@mail.com</t>
+  </si>
+  <si>
+    <t>admin23@mail.com</t>
+  </si>
+  <si>
+    <t>admin22@mail.com</t>
+  </si>
+  <si>
+    <t>admin21@mail.com</t>
+  </si>
+  <si>
+    <t>admin20@mail.com</t>
+  </si>
+  <si>
+    <t>admin19@mail.com</t>
+  </si>
+  <si>
+    <t>admin18@mail.com</t>
+  </si>
+  <si>
+    <t>admin17@mail.com</t>
+  </si>
+  <si>
+    <t>admin16@mail.com</t>
+  </si>
+  <si>
+    <t>admin15@mail.com</t>
+  </si>
+  <si>
+    <t>admin14@mail.com</t>
+  </si>
+  <si>
+    <t>quanly10@mail.com</t>
+  </si>
+  <si>
+    <t>quanly11@mail.com</t>
+  </si>
+  <si>
+    <t>quanly12@mail.com</t>
+  </si>
+  <si>
+    <t>quanly13@mail.com</t>
+  </si>
+  <si>
+    <t>admin13@mail.com</t>
+  </si>
+  <si>
+    <t>admin12@mail.com</t>
+  </si>
+  <si>
+    <t>admin11@mail.com</t>
+  </si>
+  <si>
+    <t>admin10@mail.com</t>
+  </si>
+  <si>
+    <t>admin9@mail.com</t>
+  </si>
+  <si>
+    <t>admin8@mail.com</t>
+  </si>
+  <si>
+    <t>admin7@mail.com</t>
+  </si>
+  <si>
+    <t>admin6@mail.com</t>
+  </si>
+  <si>
+    <t>admin5@mail.com</t>
+  </si>
+  <si>
+    <t>admin4@mail.com</t>
+  </si>
+  <si>
+    <t>admin3@mail.com</t>
+  </si>
+  <si>
+    <t>admin2@mail.com</t>
+  </si>
+  <si>
+    <t>admin1@mail.com</t>
+  </si>
+  <si>
+    <t>quanly22@mail.com</t>
+  </si>
+  <si>
+    <t>quanly21@mail.com</t>
+  </si>
+  <si>
+    <t>quanly20@mail.com</t>
+  </si>
+  <si>
+    <t>quanly19@mail.com</t>
+  </si>
+  <si>
+    <t>quanly18@mail.com</t>
+  </si>
+  <si>
+    <t>quanly17@mail.com</t>
+  </si>
+  <si>
+    <t>quanly16@mail.com</t>
+  </si>
+  <si>
+    <t>quanly15@mail.com</t>
+  </si>
+  <si>
+    <t>quanly14@mail.com</t>
+  </si>
+  <si>
     <t>quanly1</t>
   </si>
   <si>
@@ -294,276 +564,6 @@
   </si>
   <si>
     <t>giangvien30</t>
-  </si>
-  <si>
-    <t>quanly1@mail.com</t>
-  </si>
-  <si>
-    <t>quanly2@mail.com</t>
-  </si>
-  <si>
-    <t>quanly3@mail.com</t>
-  </si>
-  <si>
-    <t>quanly4@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien30@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien29@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien28@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien27@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien26@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien25@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien24@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien23@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien22@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien21@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien20@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien19@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien18@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien17@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien16@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien15@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien14@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien13@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien12@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien11@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien10@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien9@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien8@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien7@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien6@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien5@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien4@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien3@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien2@mail.com</t>
-  </si>
-  <si>
-    <t>giangvien1@mail.com</t>
-  </si>
-  <si>
-    <t>admin38@mail.com</t>
-  </si>
-  <si>
-    <t>admin37@mail.com</t>
-  </si>
-  <si>
-    <t>admin36@mail.com</t>
-  </si>
-  <si>
-    <t>admin35@mail.com</t>
-  </si>
-  <si>
-    <t>admin34@mail.com</t>
-  </si>
-  <si>
-    <t>admin33@mail.com</t>
-  </si>
-  <si>
-    <t>admin32@mail.com</t>
-  </si>
-  <si>
-    <t>admin31@mail.com</t>
-  </si>
-  <si>
-    <t>admin30@mail.com</t>
-  </si>
-  <si>
-    <t>admin29@mail.com</t>
-  </si>
-  <si>
-    <t>quanly5@mail.com</t>
-  </si>
-  <si>
-    <t>quanly6@mail.com</t>
-  </si>
-  <si>
-    <t>quanly7@mail.com</t>
-  </si>
-  <si>
-    <t>quanly8@mail.com</t>
-  </si>
-  <si>
-    <t>quanly9@mail.com</t>
-  </si>
-  <si>
-    <t>admin28@mail.com</t>
-  </si>
-  <si>
-    <t>admin27@mail.com</t>
-  </si>
-  <si>
-    <t>admin26@mail.com</t>
-  </si>
-  <si>
-    <t>admin25@mail.com</t>
-  </si>
-  <si>
-    <t>admin24@mail.com</t>
-  </si>
-  <si>
-    <t>admin23@mail.com</t>
-  </si>
-  <si>
-    <t>admin22@mail.com</t>
-  </si>
-  <si>
-    <t>admin21@mail.com</t>
-  </si>
-  <si>
-    <t>admin20@mail.com</t>
-  </si>
-  <si>
-    <t>admin19@mail.com</t>
-  </si>
-  <si>
-    <t>admin18@mail.com</t>
-  </si>
-  <si>
-    <t>admin17@mail.com</t>
-  </si>
-  <si>
-    <t>admin16@mail.com</t>
-  </si>
-  <si>
-    <t>admin15@mail.com</t>
-  </si>
-  <si>
-    <t>admin14@mail.com</t>
-  </si>
-  <si>
-    <t>quanly10@mail.com</t>
-  </si>
-  <si>
-    <t>quanly11@mail.com</t>
-  </si>
-  <si>
-    <t>quanly12@mail.com</t>
-  </si>
-  <si>
-    <t>quanly13@mail.com</t>
-  </si>
-  <si>
-    <t>admin13@mail.com</t>
-  </si>
-  <si>
-    <t>admin12@mail.com</t>
-  </si>
-  <si>
-    <t>admin11@mail.com</t>
-  </si>
-  <si>
-    <t>admin10@mail.com</t>
-  </si>
-  <si>
-    <t>admin9@mail.com</t>
-  </si>
-  <si>
-    <t>admin8@mail.com</t>
-  </si>
-  <si>
-    <t>admin7@mail.com</t>
-  </si>
-  <si>
-    <t>admin6@mail.com</t>
-  </si>
-  <si>
-    <t>admin5@mail.com</t>
-  </si>
-  <si>
-    <t>admin4@mail.com</t>
-  </si>
-  <si>
-    <t>admin3@mail.com</t>
-  </si>
-  <si>
-    <t>admin2@mail.com</t>
-  </si>
-  <si>
-    <t>admin1@mail.com</t>
-  </si>
-  <si>
-    <t>quanly22@mail.com</t>
-  </si>
-  <si>
-    <t>quanly21@mail.com</t>
-  </si>
-  <si>
-    <t>quanly20@mail.com</t>
-  </si>
-  <si>
-    <t>quanly19@mail.com</t>
-  </si>
-  <si>
-    <t>quanly18@mail.com</t>
-  </si>
-  <si>
-    <t>quanly17@mail.com</t>
-  </si>
-  <si>
-    <t>quanly16@mail.com</t>
-  </si>
-  <si>
-    <t>quanly15@mail.com</t>
-  </si>
-  <si>
-    <t>quanly14@mail.com</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,13 +942,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>2</v>
@@ -959,13 +959,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -976,13 +976,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1061,13 +1061,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1078,13 +1078,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1248,13 +1248,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1299,13 +1299,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1656,13 +1656,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1741,13 +1741,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1775,13 +1775,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1826,13 +1826,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1894,13 +1894,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -1979,13 +1979,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -2047,13 +2047,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -2098,13 +2098,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -2285,13 +2285,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -2302,13 +2302,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2319,13 +2319,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -2336,13 +2336,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -2370,13 +2370,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -2387,13 +2387,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -2404,13 +2404,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -2455,13 +2455,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -2474,94 +2474,94 @@
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C89" r:id="rId5"/>
-    <hyperlink ref="C88" r:id="rId6"/>
-    <hyperlink ref="C87" r:id="rId7"/>
-    <hyperlink ref="C86" r:id="rId8"/>
-    <hyperlink ref="C85" r:id="rId9"/>
-    <hyperlink ref="C84" r:id="rId10"/>
-    <hyperlink ref="C83" r:id="rId11"/>
-    <hyperlink ref="C82" r:id="rId12"/>
-    <hyperlink ref="C81" r:id="rId13"/>
-    <hyperlink ref="C80" r:id="rId14"/>
-    <hyperlink ref="C79" r:id="rId15"/>
-    <hyperlink ref="C78" r:id="rId16"/>
-    <hyperlink ref="C77" r:id="rId17"/>
-    <hyperlink ref="C76" r:id="rId18"/>
-    <hyperlink ref="C75" r:id="rId19"/>
-    <hyperlink ref="C74" r:id="rId20"/>
-    <hyperlink ref="C73" r:id="rId21"/>
-    <hyperlink ref="C72" r:id="rId22"/>
-    <hyperlink ref="C71" r:id="rId23"/>
-    <hyperlink ref="C70" r:id="rId24"/>
-    <hyperlink ref="C69" r:id="rId25"/>
-    <hyperlink ref="C68" r:id="rId26"/>
-    <hyperlink ref="C67" r:id="rId27"/>
-    <hyperlink ref="C66" r:id="rId28"/>
-    <hyperlink ref="C65" r:id="rId29"/>
-    <hyperlink ref="C64" r:id="rId30"/>
-    <hyperlink ref="C63" r:id="rId31"/>
-    <hyperlink ref="C62" r:id="rId32"/>
-    <hyperlink ref="C61" r:id="rId33"/>
-    <hyperlink ref="C60" r:id="rId34"/>
-    <hyperlink ref="C59" r:id="rId35"/>
-    <hyperlink ref="C58" r:id="rId36"/>
-    <hyperlink ref="C57" r:id="rId37"/>
-    <hyperlink ref="C56" r:id="rId38"/>
-    <hyperlink ref="C55" r:id="rId39"/>
-    <hyperlink ref="C54" r:id="rId40"/>
-    <hyperlink ref="C53" r:id="rId41"/>
-    <hyperlink ref="C52" r:id="rId42"/>
-    <hyperlink ref="C51" r:id="rId43"/>
-    <hyperlink ref="C5" r:id="rId44"/>
-    <hyperlink ref="C6" r:id="rId45"/>
-    <hyperlink ref="C7" r:id="rId46"/>
-    <hyperlink ref="C8" r:id="rId47"/>
-    <hyperlink ref="C9" r:id="rId48"/>
-    <hyperlink ref="C90" r:id="rId49"/>
-    <hyperlink ref="C50" r:id="rId50"/>
-    <hyperlink ref="C49" r:id="rId51"/>
-    <hyperlink ref="C48" r:id="rId52"/>
-    <hyperlink ref="C47" r:id="rId53"/>
-    <hyperlink ref="C46" r:id="rId54"/>
-    <hyperlink ref="C45" r:id="rId55"/>
-    <hyperlink ref="C44" r:id="rId56"/>
-    <hyperlink ref="C43" r:id="rId57"/>
-    <hyperlink ref="C42" r:id="rId58"/>
-    <hyperlink ref="C41" r:id="rId59"/>
-    <hyperlink ref="C40" r:id="rId60"/>
-    <hyperlink ref="C39" r:id="rId61"/>
-    <hyperlink ref="C38" r:id="rId62"/>
-    <hyperlink ref="C37" r:id="rId63"/>
-    <hyperlink ref="C36" r:id="rId64"/>
-    <hyperlink ref="C10" r:id="rId65"/>
-    <hyperlink ref="C11" r:id="rId66"/>
-    <hyperlink ref="C12" r:id="rId67"/>
-    <hyperlink ref="C13" r:id="rId68"/>
-    <hyperlink ref="C35" r:id="rId69"/>
-    <hyperlink ref="C34" r:id="rId70"/>
-    <hyperlink ref="C33" r:id="rId71"/>
-    <hyperlink ref="C32" r:id="rId72"/>
-    <hyperlink ref="C31" r:id="rId73"/>
-    <hyperlink ref="C30" r:id="rId74"/>
-    <hyperlink ref="C29" r:id="rId75"/>
-    <hyperlink ref="C28" r:id="rId76"/>
-    <hyperlink ref="C27" r:id="rId77"/>
-    <hyperlink ref="C26" r:id="rId78"/>
-    <hyperlink ref="C25" r:id="rId79"/>
-    <hyperlink ref="C24" r:id="rId80"/>
-    <hyperlink ref="C23" r:id="rId81"/>
-    <hyperlink ref="C22" r:id="rId82"/>
-    <hyperlink ref="C21" r:id="rId83"/>
-    <hyperlink ref="C20" r:id="rId84"/>
-    <hyperlink ref="C19" r:id="rId85"/>
-    <hyperlink ref="C18" r:id="rId86"/>
-    <hyperlink ref="C17" r:id="rId87"/>
-    <hyperlink ref="C16" r:id="rId88"/>
-    <hyperlink ref="C15" r:id="rId89"/>
-    <hyperlink ref="C14" r:id="rId90"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C89" r:id="rId4"/>
+    <hyperlink ref="C88" r:id="rId5"/>
+    <hyperlink ref="C87" r:id="rId6"/>
+    <hyperlink ref="C86" r:id="rId7"/>
+    <hyperlink ref="C85" r:id="rId8"/>
+    <hyperlink ref="C84" r:id="rId9"/>
+    <hyperlink ref="C83" r:id="rId10"/>
+    <hyperlink ref="C82" r:id="rId11"/>
+    <hyperlink ref="C81" r:id="rId12"/>
+    <hyperlink ref="C80" r:id="rId13"/>
+    <hyperlink ref="C79" r:id="rId14"/>
+    <hyperlink ref="C78" r:id="rId15"/>
+    <hyperlink ref="C77" r:id="rId16"/>
+    <hyperlink ref="C76" r:id="rId17"/>
+    <hyperlink ref="C75" r:id="rId18"/>
+    <hyperlink ref="C74" r:id="rId19"/>
+    <hyperlink ref="C73" r:id="rId20"/>
+    <hyperlink ref="C72" r:id="rId21"/>
+    <hyperlink ref="C71" r:id="rId22"/>
+    <hyperlink ref="C70" r:id="rId23"/>
+    <hyperlink ref="C69" r:id="rId24"/>
+    <hyperlink ref="C68" r:id="rId25"/>
+    <hyperlink ref="C67" r:id="rId26"/>
+    <hyperlink ref="C66" r:id="rId27"/>
+    <hyperlink ref="C65" r:id="rId28"/>
+    <hyperlink ref="C64" r:id="rId29"/>
+    <hyperlink ref="C63" r:id="rId30"/>
+    <hyperlink ref="C62" r:id="rId31"/>
+    <hyperlink ref="C61" r:id="rId32"/>
+    <hyperlink ref="C60" r:id="rId33"/>
+    <hyperlink ref="C59" r:id="rId34"/>
+    <hyperlink ref="C58" r:id="rId35"/>
+    <hyperlink ref="C57" r:id="rId36"/>
+    <hyperlink ref="C56" r:id="rId37"/>
+    <hyperlink ref="C55" r:id="rId38"/>
+    <hyperlink ref="C54" r:id="rId39"/>
+    <hyperlink ref="C53" r:id="rId40"/>
+    <hyperlink ref="C52" r:id="rId41"/>
+    <hyperlink ref="C51" r:id="rId42"/>
+    <hyperlink ref="C5" r:id="rId43"/>
+    <hyperlink ref="C6" r:id="rId44"/>
+    <hyperlink ref="C7" r:id="rId45"/>
+    <hyperlink ref="C8" r:id="rId46"/>
+    <hyperlink ref="C9" r:id="rId47"/>
+    <hyperlink ref="C90" r:id="rId48"/>
+    <hyperlink ref="C50" r:id="rId49"/>
+    <hyperlink ref="C49" r:id="rId50"/>
+    <hyperlink ref="C48" r:id="rId51"/>
+    <hyperlink ref="C47" r:id="rId52"/>
+    <hyperlink ref="C46" r:id="rId53"/>
+    <hyperlink ref="C45" r:id="rId54"/>
+    <hyperlink ref="C44" r:id="rId55"/>
+    <hyperlink ref="C43" r:id="rId56"/>
+    <hyperlink ref="C42" r:id="rId57"/>
+    <hyperlink ref="C41" r:id="rId58"/>
+    <hyperlink ref="C40" r:id="rId59"/>
+    <hyperlink ref="C39" r:id="rId60"/>
+    <hyperlink ref="C38" r:id="rId61"/>
+    <hyperlink ref="C37" r:id="rId62"/>
+    <hyperlink ref="C36" r:id="rId63"/>
+    <hyperlink ref="C10" r:id="rId64"/>
+    <hyperlink ref="C11" r:id="rId65"/>
+    <hyperlink ref="C12" r:id="rId66"/>
+    <hyperlink ref="C13" r:id="rId67"/>
+    <hyperlink ref="C35" r:id="rId68"/>
+    <hyperlink ref="C34" r:id="rId69"/>
+    <hyperlink ref="C33" r:id="rId70"/>
+    <hyperlink ref="C32" r:id="rId71"/>
+    <hyperlink ref="C31" r:id="rId72"/>
+    <hyperlink ref="C30" r:id="rId73"/>
+    <hyperlink ref="C29" r:id="rId74"/>
+    <hyperlink ref="C28" r:id="rId75"/>
+    <hyperlink ref="C27" r:id="rId76"/>
+    <hyperlink ref="C26" r:id="rId77"/>
+    <hyperlink ref="C25" r:id="rId78"/>
+    <hyperlink ref="C24" r:id="rId79"/>
+    <hyperlink ref="C23" r:id="rId80"/>
+    <hyperlink ref="C22" r:id="rId81"/>
+    <hyperlink ref="C21" r:id="rId82"/>
+    <hyperlink ref="C20" r:id="rId83"/>
+    <hyperlink ref="C19" r:id="rId84"/>
+    <hyperlink ref="C18" r:id="rId85"/>
+    <hyperlink ref="C17" r:id="rId86"/>
+    <hyperlink ref="C16" r:id="rId87"/>
+    <hyperlink ref="C15" r:id="rId88"/>
+    <hyperlink ref="C14" r:id="rId89"/>
+    <hyperlink ref="C3" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId91"/>

--- a/admin/uploads/test - Copy.xlsx
+++ b/admin/uploads/test - Copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\BTL\admin\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\BTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,6 +26,276 @@
     <t>$2y$10$rCpnHGtra.axVLHRJS1fMOdyofMUPeIamkwIHR10H7u1tVB1CptkW</t>
   </si>
   <si>
+    <t>quanly1</t>
+  </si>
+  <si>
+    <t>quanly2</t>
+  </si>
+  <si>
+    <t>quanly3</t>
+  </si>
+  <si>
+    <t>quanly4</t>
+  </si>
+  <si>
+    <t>quanly5</t>
+  </si>
+  <si>
+    <t>quanly6</t>
+  </si>
+  <si>
+    <t>quanly7</t>
+  </si>
+  <si>
+    <t>quanly8</t>
+  </si>
+  <si>
+    <t>quanly9</t>
+  </si>
+  <si>
+    <t>quanly10</t>
+  </si>
+  <si>
+    <t>quanly11</t>
+  </si>
+  <si>
+    <t>quanly12</t>
+  </si>
+  <si>
+    <t>quanly13</t>
+  </si>
+  <si>
+    <t>quanly14</t>
+  </si>
+  <si>
+    <t>quanly15</t>
+  </si>
+  <si>
+    <t>quanly16</t>
+  </si>
+  <si>
+    <t>quanly17</t>
+  </si>
+  <si>
+    <t>quanly18</t>
+  </si>
+  <si>
+    <t>quanly19</t>
+  </si>
+  <si>
+    <t>quanly20</t>
+  </si>
+  <si>
+    <t>quanly21</t>
+  </si>
+  <si>
+    <t>quanly22</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>admin2</t>
+  </si>
+  <si>
+    <t>admin3</t>
+  </si>
+  <si>
+    <t>admin4</t>
+  </si>
+  <si>
+    <t>admin5</t>
+  </si>
+  <si>
+    <t>admin6</t>
+  </si>
+  <si>
+    <t>admin7</t>
+  </si>
+  <si>
+    <t>admin8</t>
+  </si>
+  <si>
+    <t>admin9</t>
+  </si>
+  <si>
+    <t>admin10</t>
+  </si>
+  <si>
+    <t>admin11</t>
+  </si>
+  <si>
+    <t>admin12</t>
+  </si>
+  <si>
+    <t>admin13</t>
+  </si>
+  <si>
+    <t>admin14</t>
+  </si>
+  <si>
+    <t>admin15</t>
+  </si>
+  <si>
+    <t>admin16</t>
+  </si>
+  <si>
+    <t>admin17</t>
+  </si>
+  <si>
+    <t>admin18</t>
+  </si>
+  <si>
+    <t>admin19</t>
+  </si>
+  <si>
+    <t>admin20</t>
+  </si>
+  <si>
+    <t>admin21</t>
+  </si>
+  <si>
+    <t>admin22</t>
+  </si>
+  <si>
+    <t>admin23</t>
+  </si>
+  <si>
+    <t>admin24</t>
+  </si>
+  <si>
+    <t>admin25</t>
+  </si>
+  <si>
+    <t>admin26</t>
+  </si>
+  <si>
+    <t>admin27</t>
+  </si>
+  <si>
+    <t>admin28</t>
+  </si>
+  <si>
+    <t>admin29</t>
+  </si>
+  <si>
+    <t>admin30</t>
+  </si>
+  <si>
+    <t>admin31</t>
+  </si>
+  <si>
+    <t>admin32</t>
+  </si>
+  <si>
+    <t>admin33</t>
+  </si>
+  <si>
+    <t>admin34</t>
+  </si>
+  <si>
+    <t>admin35</t>
+  </si>
+  <si>
+    <t>admin36</t>
+  </si>
+  <si>
+    <t>admin37</t>
+  </si>
+  <si>
+    <t>admin38</t>
+  </si>
+  <si>
+    <t>giangvien1</t>
+  </si>
+  <si>
+    <t>giangvien2</t>
+  </si>
+  <si>
+    <t>giangvien3</t>
+  </si>
+  <si>
+    <t>giangvien4</t>
+  </si>
+  <si>
+    <t>giangvien5</t>
+  </si>
+  <si>
+    <t>giangvien6</t>
+  </si>
+  <si>
+    <t>giangvien7</t>
+  </si>
+  <si>
+    <t>giangvien8</t>
+  </si>
+  <si>
+    <t>giangvien9</t>
+  </si>
+  <si>
+    <t>giangvien10</t>
+  </si>
+  <si>
+    <t>giangvien11</t>
+  </si>
+  <si>
+    <t>giangvien12</t>
+  </si>
+  <si>
+    <t>giangvien13</t>
+  </si>
+  <si>
+    <t>giangvien14</t>
+  </si>
+  <si>
+    <t>giangvien15</t>
+  </si>
+  <si>
+    <t>giangvien16</t>
+  </si>
+  <si>
+    <t>giangvien17</t>
+  </si>
+  <si>
+    <t>giangvien18</t>
+  </si>
+  <si>
+    <t>giangvien19</t>
+  </si>
+  <si>
+    <t>giangvien20</t>
+  </si>
+  <si>
+    <t>giangvien21</t>
+  </si>
+  <si>
+    <t>giangvien22</t>
+  </si>
+  <si>
+    <t>giangvien23</t>
+  </si>
+  <si>
+    <t>giangvien24</t>
+  </si>
+  <si>
+    <t>giangvien25</t>
+  </si>
+  <si>
+    <t>giangvien26</t>
+  </si>
+  <si>
+    <t>giangvien27</t>
+  </si>
+  <si>
+    <t>giangvien28</t>
+  </si>
+  <si>
+    <t>giangvien29</t>
+  </si>
+  <si>
+    <t>giangvien30</t>
+  </si>
+  <si>
     <t>quanly1@mail.com</t>
   </si>
   <si>
@@ -294,276 +564,6 @@
   </si>
   <si>
     <t>quanly14@mail.com</t>
-  </si>
-  <si>
-    <t>quanly1</t>
-  </si>
-  <si>
-    <t>quanly2</t>
-  </si>
-  <si>
-    <t>quanly3</t>
-  </si>
-  <si>
-    <t>quanly4</t>
-  </si>
-  <si>
-    <t>quanly5</t>
-  </si>
-  <si>
-    <t>quanly6</t>
-  </si>
-  <si>
-    <t>quanly7</t>
-  </si>
-  <si>
-    <t>quanly8</t>
-  </si>
-  <si>
-    <t>quanly9</t>
-  </si>
-  <si>
-    <t>quanly10</t>
-  </si>
-  <si>
-    <t>quanly11</t>
-  </si>
-  <si>
-    <t>quanly12</t>
-  </si>
-  <si>
-    <t>quanly13</t>
-  </si>
-  <si>
-    <t>quanly14</t>
-  </si>
-  <si>
-    <t>quanly15</t>
-  </si>
-  <si>
-    <t>quanly16</t>
-  </si>
-  <si>
-    <t>quanly17</t>
-  </si>
-  <si>
-    <t>quanly18</t>
-  </si>
-  <si>
-    <t>quanly19</t>
-  </si>
-  <si>
-    <t>quanly20</t>
-  </si>
-  <si>
-    <t>quanly21</t>
-  </si>
-  <si>
-    <t>quanly22</t>
-  </si>
-  <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>admin2</t>
-  </si>
-  <si>
-    <t>admin3</t>
-  </si>
-  <si>
-    <t>admin4</t>
-  </si>
-  <si>
-    <t>admin5</t>
-  </si>
-  <si>
-    <t>admin6</t>
-  </si>
-  <si>
-    <t>admin7</t>
-  </si>
-  <si>
-    <t>admin8</t>
-  </si>
-  <si>
-    <t>admin9</t>
-  </si>
-  <si>
-    <t>admin10</t>
-  </si>
-  <si>
-    <t>admin11</t>
-  </si>
-  <si>
-    <t>admin12</t>
-  </si>
-  <si>
-    <t>admin13</t>
-  </si>
-  <si>
-    <t>admin14</t>
-  </si>
-  <si>
-    <t>admin15</t>
-  </si>
-  <si>
-    <t>admin16</t>
-  </si>
-  <si>
-    <t>admin17</t>
-  </si>
-  <si>
-    <t>admin18</t>
-  </si>
-  <si>
-    <t>admin19</t>
-  </si>
-  <si>
-    <t>admin20</t>
-  </si>
-  <si>
-    <t>admin21</t>
-  </si>
-  <si>
-    <t>admin22</t>
-  </si>
-  <si>
-    <t>admin23</t>
-  </si>
-  <si>
-    <t>admin24</t>
-  </si>
-  <si>
-    <t>admin25</t>
-  </si>
-  <si>
-    <t>admin26</t>
-  </si>
-  <si>
-    <t>admin27</t>
-  </si>
-  <si>
-    <t>admin28</t>
-  </si>
-  <si>
-    <t>admin29</t>
-  </si>
-  <si>
-    <t>admin30</t>
-  </si>
-  <si>
-    <t>admin31</t>
-  </si>
-  <si>
-    <t>admin32</t>
-  </si>
-  <si>
-    <t>admin33</t>
-  </si>
-  <si>
-    <t>admin34</t>
-  </si>
-  <si>
-    <t>admin35</t>
-  </si>
-  <si>
-    <t>admin36</t>
-  </si>
-  <si>
-    <t>admin37</t>
-  </si>
-  <si>
-    <t>admin38</t>
-  </si>
-  <si>
-    <t>giangvien1</t>
-  </si>
-  <si>
-    <t>giangvien2</t>
-  </si>
-  <si>
-    <t>giangvien3</t>
-  </si>
-  <si>
-    <t>giangvien4</t>
-  </si>
-  <si>
-    <t>giangvien5</t>
-  </si>
-  <si>
-    <t>giangvien6</t>
-  </si>
-  <si>
-    <t>giangvien7</t>
-  </si>
-  <si>
-    <t>giangvien8</t>
-  </si>
-  <si>
-    <t>giangvien9</t>
-  </si>
-  <si>
-    <t>giangvien10</t>
-  </si>
-  <si>
-    <t>giangvien11</t>
-  </si>
-  <si>
-    <t>giangvien12</t>
-  </si>
-  <si>
-    <t>giangvien13</t>
-  </si>
-  <si>
-    <t>giangvien14</t>
-  </si>
-  <si>
-    <t>giangvien15</t>
-  </si>
-  <si>
-    <t>giangvien16</t>
-  </si>
-  <si>
-    <t>giangvien17</t>
-  </si>
-  <si>
-    <t>giangvien18</t>
-  </si>
-  <si>
-    <t>giangvien19</t>
-  </si>
-  <si>
-    <t>giangvien20</t>
-  </si>
-  <si>
-    <t>giangvien21</t>
-  </si>
-  <si>
-    <t>giangvien22</t>
-  </si>
-  <si>
-    <t>giangvien23</t>
-  </si>
-  <si>
-    <t>giangvien24</t>
-  </si>
-  <si>
-    <t>giangvien25</t>
-  </si>
-  <si>
-    <t>giangvien26</t>
-  </si>
-  <si>
-    <t>giangvien27</t>
-  </si>
-  <si>
-    <t>giangvien28</t>
-  </si>
-  <si>
-    <t>giangvien29</t>
-  </si>
-  <si>
-    <t>giangvien30</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,13 +942,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1">
         <v>2</v>
@@ -959,13 +959,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -976,13 +976,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1061,13 +1061,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1078,13 +1078,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1248,13 +1248,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1299,13 +1299,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1656,13 +1656,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1741,13 +1741,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1775,13 +1775,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1826,13 +1826,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1894,13 +1894,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -1979,13 +1979,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -2047,13 +2047,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -2098,13 +2098,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -2285,13 +2285,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -2302,13 +2302,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2319,13 +2319,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -2336,13 +2336,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -2370,13 +2370,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -2387,13 +2387,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -2404,13 +2404,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -2455,13 +2455,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -2474,94 +2474,94 @@
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C89" r:id="rId4"/>
-    <hyperlink ref="C88" r:id="rId5"/>
-    <hyperlink ref="C87" r:id="rId6"/>
-    <hyperlink ref="C86" r:id="rId7"/>
-    <hyperlink ref="C85" r:id="rId8"/>
-    <hyperlink ref="C84" r:id="rId9"/>
-    <hyperlink ref="C83" r:id="rId10"/>
-    <hyperlink ref="C82" r:id="rId11"/>
-    <hyperlink ref="C81" r:id="rId12"/>
-    <hyperlink ref="C80" r:id="rId13"/>
-    <hyperlink ref="C79" r:id="rId14"/>
-    <hyperlink ref="C78" r:id="rId15"/>
-    <hyperlink ref="C77" r:id="rId16"/>
-    <hyperlink ref="C76" r:id="rId17"/>
-    <hyperlink ref="C75" r:id="rId18"/>
-    <hyperlink ref="C74" r:id="rId19"/>
-    <hyperlink ref="C73" r:id="rId20"/>
-    <hyperlink ref="C72" r:id="rId21"/>
-    <hyperlink ref="C71" r:id="rId22"/>
-    <hyperlink ref="C70" r:id="rId23"/>
-    <hyperlink ref="C69" r:id="rId24"/>
-    <hyperlink ref="C68" r:id="rId25"/>
-    <hyperlink ref="C67" r:id="rId26"/>
-    <hyperlink ref="C66" r:id="rId27"/>
-    <hyperlink ref="C65" r:id="rId28"/>
-    <hyperlink ref="C64" r:id="rId29"/>
-    <hyperlink ref="C63" r:id="rId30"/>
-    <hyperlink ref="C62" r:id="rId31"/>
-    <hyperlink ref="C61" r:id="rId32"/>
-    <hyperlink ref="C60" r:id="rId33"/>
-    <hyperlink ref="C59" r:id="rId34"/>
-    <hyperlink ref="C58" r:id="rId35"/>
-    <hyperlink ref="C57" r:id="rId36"/>
-    <hyperlink ref="C56" r:id="rId37"/>
-    <hyperlink ref="C55" r:id="rId38"/>
-    <hyperlink ref="C54" r:id="rId39"/>
-    <hyperlink ref="C53" r:id="rId40"/>
-    <hyperlink ref="C52" r:id="rId41"/>
-    <hyperlink ref="C51" r:id="rId42"/>
-    <hyperlink ref="C5" r:id="rId43"/>
-    <hyperlink ref="C6" r:id="rId44"/>
-    <hyperlink ref="C7" r:id="rId45"/>
-    <hyperlink ref="C8" r:id="rId46"/>
-    <hyperlink ref="C9" r:id="rId47"/>
-    <hyperlink ref="C90" r:id="rId48"/>
-    <hyperlink ref="C50" r:id="rId49"/>
-    <hyperlink ref="C49" r:id="rId50"/>
-    <hyperlink ref="C48" r:id="rId51"/>
-    <hyperlink ref="C47" r:id="rId52"/>
-    <hyperlink ref="C46" r:id="rId53"/>
-    <hyperlink ref="C45" r:id="rId54"/>
-    <hyperlink ref="C44" r:id="rId55"/>
-    <hyperlink ref="C43" r:id="rId56"/>
-    <hyperlink ref="C42" r:id="rId57"/>
-    <hyperlink ref="C41" r:id="rId58"/>
-    <hyperlink ref="C40" r:id="rId59"/>
-    <hyperlink ref="C39" r:id="rId60"/>
-    <hyperlink ref="C38" r:id="rId61"/>
-    <hyperlink ref="C37" r:id="rId62"/>
-    <hyperlink ref="C36" r:id="rId63"/>
-    <hyperlink ref="C10" r:id="rId64"/>
-    <hyperlink ref="C11" r:id="rId65"/>
-    <hyperlink ref="C12" r:id="rId66"/>
-    <hyperlink ref="C13" r:id="rId67"/>
-    <hyperlink ref="C35" r:id="rId68"/>
-    <hyperlink ref="C34" r:id="rId69"/>
-    <hyperlink ref="C33" r:id="rId70"/>
-    <hyperlink ref="C32" r:id="rId71"/>
-    <hyperlink ref="C31" r:id="rId72"/>
-    <hyperlink ref="C30" r:id="rId73"/>
-    <hyperlink ref="C29" r:id="rId74"/>
-    <hyperlink ref="C28" r:id="rId75"/>
-    <hyperlink ref="C27" r:id="rId76"/>
-    <hyperlink ref="C26" r:id="rId77"/>
-    <hyperlink ref="C25" r:id="rId78"/>
-    <hyperlink ref="C24" r:id="rId79"/>
-    <hyperlink ref="C23" r:id="rId80"/>
-    <hyperlink ref="C22" r:id="rId81"/>
-    <hyperlink ref="C21" r:id="rId82"/>
-    <hyperlink ref="C20" r:id="rId83"/>
-    <hyperlink ref="C19" r:id="rId84"/>
-    <hyperlink ref="C18" r:id="rId85"/>
-    <hyperlink ref="C17" r:id="rId86"/>
-    <hyperlink ref="C16" r:id="rId87"/>
-    <hyperlink ref="C15" r:id="rId88"/>
-    <hyperlink ref="C14" r:id="rId89"/>
-    <hyperlink ref="C3" r:id="rId90"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C89" r:id="rId5"/>
+    <hyperlink ref="C88" r:id="rId6"/>
+    <hyperlink ref="C87" r:id="rId7"/>
+    <hyperlink ref="C86" r:id="rId8"/>
+    <hyperlink ref="C85" r:id="rId9"/>
+    <hyperlink ref="C84" r:id="rId10"/>
+    <hyperlink ref="C83" r:id="rId11"/>
+    <hyperlink ref="C82" r:id="rId12"/>
+    <hyperlink ref="C81" r:id="rId13"/>
+    <hyperlink ref="C80" r:id="rId14"/>
+    <hyperlink ref="C79" r:id="rId15"/>
+    <hyperlink ref="C78" r:id="rId16"/>
+    <hyperlink ref="C77" r:id="rId17"/>
+    <hyperlink ref="C76" r:id="rId18"/>
+    <hyperlink ref="C75" r:id="rId19"/>
+    <hyperlink ref="C74" r:id="rId20"/>
+    <hyperlink ref="C73" r:id="rId21"/>
+    <hyperlink ref="C72" r:id="rId22"/>
+    <hyperlink ref="C71" r:id="rId23"/>
+    <hyperlink ref="C70" r:id="rId24"/>
+    <hyperlink ref="C69" r:id="rId25"/>
+    <hyperlink ref="C68" r:id="rId26"/>
+    <hyperlink ref="C67" r:id="rId27"/>
+    <hyperlink ref="C66" r:id="rId28"/>
+    <hyperlink ref="C65" r:id="rId29"/>
+    <hyperlink ref="C64" r:id="rId30"/>
+    <hyperlink ref="C63" r:id="rId31"/>
+    <hyperlink ref="C62" r:id="rId32"/>
+    <hyperlink ref="C61" r:id="rId33"/>
+    <hyperlink ref="C60" r:id="rId34"/>
+    <hyperlink ref="C59" r:id="rId35"/>
+    <hyperlink ref="C58" r:id="rId36"/>
+    <hyperlink ref="C57" r:id="rId37"/>
+    <hyperlink ref="C56" r:id="rId38"/>
+    <hyperlink ref="C55" r:id="rId39"/>
+    <hyperlink ref="C54" r:id="rId40"/>
+    <hyperlink ref="C53" r:id="rId41"/>
+    <hyperlink ref="C52" r:id="rId42"/>
+    <hyperlink ref="C51" r:id="rId43"/>
+    <hyperlink ref="C5" r:id="rId44"/>
+    <hyperlink ref="C6" r:id="rId45"/>
+    <hyperlink ref="C7" r:id="rId46"/>
+    <hyperlink ref="C8" r:id="rId47"/>
+    <hyperlink ref="C9" r:id="rId48"/>
+    <hyperlink ref="C90" r:id="rId49"/>
+    <hyperlink ref="C50" r:id="rId50"/>
+    <hyperlink ref="C49" r:id="rId51"/>
+    <hyperlink ref="C48" r:id="rId52"/>
+    <hyperlink ref="C47" r:id="rId53"/>
+    <hyperlink ref="C46" r:id="rId54"/>
+    <hyperlink ref="C45" r:id="rId55"/>
+    <hyperlink ref="C44" r:id="rId56"/>
+    <hyperlink ref="C43" r:id="rId57"/>
+    <hyperlink ref="C42" r:id="rId58"/>
+    <hyperlink ref="C41" r:id="rId59"/>
+    <hyperlink ref="C40" r:id="rId60"/>
+    <hyperlink ref="C39" r:id="rId61"/>
+    <hyperlink ref="C38" r:id="rId62"/>
+    <hyperlink ref="C37" r:id="rId63"/>
+    <hyperlink ref="C36" r:id="rId64"/>
+    <hyperlink ref="C10" r:id="rId65"/>
+    <hyperlink ref="C11" r:id="rId66"/>
+    <hyperlink ref="C12" r:id="rId67"/>
+    <hyperlink ref="C13" r:id="rId68"/>
+    <hyperlink ref="C35" r:id="rId69"/>
+    <hyperlink ref="C34" r:id="rId70"/>
+    <hyperlink ref="C33" r:id="rId71"/>
+    <hyperlink ref="C32" r:id="rId72"/>
+    <hyperlink ref="C31" r:id="rId73"/>
+    <hyperlink ref="C30" r:id="rId74"/>
+    <hyperlink ref="C29" r:id="rId75"/>
+    <hyperlink ref="C28" r:id="rId76"/>
+    <hyperlink ref="C27" r:id="rId77"/>
+    <hyperlink ref="C26" r:id="rId78"/>
+    <hyperlink ref="C25" r:id="rId79"/>
+    <hyperlink ref="C24" r:id="rId80"/>
+    <hyperlink ref="C23" r:id="rId81"/>
+    <hyperlink ref="C22" r:id="rId82"/>
+    <hyperlink ref="C21" r:id="rId83"/>
+    <hyperlink ref="C20" r:id="rId84"/>
+    <hyperlink ref="C19" r:id="rId85"/>
+    <hyperlink ref="C18" r:id="rId86"/>
+    <hyperlink ref="C17" r:id="rId87"/>
+    <hyperlink ref="C16" r:id="rId88"/>
+    <hyperlink ref="C15" r:id="rId89"/>
+    <hyperlink ref="C14" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId91"/>

--- a/admin/uploads/test - Copy.xlsx
+++ b/admin/uploads/test - Copy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\BTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BTL\admin\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BEA77BA-4FCE-4054-BD0E-08F26EA5577C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24240" windowHeight="12525"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -569,7 +571,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -716,6 +718,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -751,6 +770,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -926,21 +962,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -957,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -974,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -991,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +1044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1093,7 +1129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1127,7 +1163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1144,7 +1180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1212,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1229,7 +1265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1263,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1280,7 +1316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1297,7 +1333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1331,7 +1367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1348,7 +1384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1382,7 +1418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1399,7 +1435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1416,7 +1452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1433,7 +1469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1450,7 +1486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1467,7 +1503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1484,7 +1520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1501,7 +1537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1518,7 +1554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1535,7 +1571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1552,7 +1588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1569,7 +1605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1586,7 +1622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1603,7 +1639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1620,7 +1656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1637,7 +1673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1654,7 +1690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1671,7 +1707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1688,7 +1724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1705,7 +1741,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1722,7 +1758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1739,7 +1775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1756,7 +1792,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1773,7 +1809,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1790,7 +1826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1807,7 +1843,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1824,7 +1860,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1841,7 +1877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1858,7 +1894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1875,7 +1911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1892,7 +1928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1909,7 +1945,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1926,7 +1962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1943,7 +1979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1960,7 +1996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1977,7 +2013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1994,7 +2030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2011,7 +2047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2028,7 +2064,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2045,7 +2081,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2062,7 +2098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2079,7 +2115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2096,7 +2132,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2113,7 +2149,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2130,7 +2166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2147,7 +2183,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2164,7 +2200,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2181,7 +2217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2198,7 +2234,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2215,7 +2251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2232,7 +2268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2249,7 +2285,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2266,7 +2302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2283,7 +2319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2300,7 +2336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2317,7 +2353,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2334,7 +2370,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2351,7 +2387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2368,7 +2404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2385,7 +2421,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2402,7 +2438,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2419,7 +2455,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2436,7 +2472,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2453,7 +2489,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2472,96 +2508,96 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C89" r:id="rId5"/>
-    <hyperlink ref="C88" r:id="rId6"/>
-    <hyperlink ref="C87" r:id="rId7"/>
-    <hyperlink ref="C86" r:id="rId8"/>
-    <hyperlink ref="C85" r:id="rId9"/>
-    <hyperlink ref="C84" r:id="rId10"/>
-    <hyperlink ref="C83" r:id="rId11"/>
-    <hyperlink ref="C82" r:id="rId12"/>
-    <hyperlink ref="C81" r:id="rId13"/>
-    <hyperlink ref="C80" r:id="rId14"/>
-    <hyperlink ref="C79" r:id="rId15"/>
-    <hyperlink ref="C78" r:id="rId16"/>
-    <hyperlink ref="C77" r:id="rId17"/>
-    <hyperlink ref="C76" r:id="rId18"/>
-    <hyperlink ref="C75" r:id="rId19"/>
-    <hyperlink ref="C74" r:id="rId20"/>
-    <hyperlink ref="C73" r:id="rId21"/>
-    <hyperlink ref="C72" r:id="rId22"/>
-    <hyperlink ref="C71" r:id="rId23"/>
-    <hyperlink ref="C70" r:id="rId24"/>
-    <hyperlink ref="C69" r:id="rId25"/>
-    <hyperlink ref="C68" r:id="rId26"/>
-    <hyperlink ref="C67" r:id="rId27"/>
-    <hyperlink ref="C66" r:id="rId28"/>
-    <hyperlink ref="C65" r:id="rId29"/>
-    <hyperlink ref="C64" r:id="rId30"/>
-    <hyperlink ref="C63" r:id="rId31"/>
-    <hyperlink ref="C62" r:id="rId32"/>
-    <hyperlink ref="C61" r:id="rId33"/>
-    <hyperlink ref="C60" r:id="rId34"/>
-    <hyperlink ref="C59" r:id="rId35"/>
-    <hyperlink ref="C58" r:id="rId36"/>
-    <hyperlink ref="C57" r:id="rId37"/>
-    <hyperlink ref="C56" r:id="rId38"/>
-    <hyperlink ref="C55" r:id="rId39"/>
-    <hyperlink ref="C54" r:id="rId40"/>
-    <hyperlink ref="C53" r:id="rId41"/>
-    <hyperlink ref="C52" r:id="rId42"/>
-    <hyperlink ref="C51" r:id="rId43"/>
-    <hyperlink ref="C5" r:id="rId44"/>
-    <hyperlink ref="C6" r:id="rId45"/>
-    <hyperlink ref="C7" r:id="rId46"/>
-    <hyperlink ref="C8" r:id="rId47"/>
-    <hyperlink ref="C9" r:id="rId48"/>
-    <hyperlink ref="C90" r:id="rId49"/>
-    <hyperlink ref="C50" r:id="rId50"/>
-    <hyperlink ref="C49" r:id="rId51"/>
-    <hyperlink ref="C48" r:id="rId52"/>
-    <hyperlink ref="C47" r:id="rId53"/>
-    <hyperlink ref="C46" r:id="rId54"/>
-    <hyperlink ref="C45" r:id="rId55"/>
-    <hyperlink ref="C44" r:id="rId56"/>
-    <hyperlink ref="C43" r:id="rId57"/>
-    <hyperlink ref="C42" r:id="rId58"/>
-    <hyperlink ref="C41" r:id="rId59"/>
-    <hyperlink ref="C40" r:id="rId60"/>
-    <hyperlink ref="C39" r:id="rId61"/>
-    <hyperlink ref="C38" r:id="rId62"/>
-    <hyperlink ref="C37" r:id="rId63"/>
-    <hyperlink ref="C36" r:id="rId64"/>
-    <hyperlink ref="C10" r:id="rId65"/>
-    <hyperlink ref="C11" r:id="rId66"/>
-    <hyperlink ref="C12" r:id="rId67"/>
-    <hyperlink ref="C13" r:id="rId68"/>
-    <hyperlink ref="C35" r:id="rId69"/>
-    <hyperlink ref="C34" r:id="rId70"/>
-    <hyperlink ref="C33" r:id="rId71"/>
-    <hyperlink ref="C32" r:id="rId72"/>
-    <hyperlink ref="C31" r:id="rId73"/>
-    <hyperlink ref="C30" r:id="rId74"/>
-    <hyperlink ref="C29" r:id="rId75"/>
-    <hyperlink ref="C28" r:id="rId76"/>
-    <hyperlink ref="C27" r:id="rId77"/>
-    <hyperlink ref="C26" r:id="rId78"/>
-    <hyperlink ref="C25" r:id="rId79"/>
-    <hyperlink ref="C24" r:id="rId80"/>
-    <hyperlink ref="C23" r:id="rId81"/>
-    <hyperlink ref="C22" r:id="rId82"/>
-    <hyperlink ref="C21" r:id="rId83"/>
-    <hyperlink ref="C20" r:id="rId84"/>
-    <hyperlink ref="C19" r:id="rId85"/>
-    <hyperlink ref="C18" r:id="rId86"/>
-    <hyperlink ref="C17" r:id="rId87"/>
-    <hyperlink ref="C16" r:id="rId88"/>
-    <hyperlink ref="C15" r:id="rId89"/>
-    <hyperlink ref="C14" r:id="rId90"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C89" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C88" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C87" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C86" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C85" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C84" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C83" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C82" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C81" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C80" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C79" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C78" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C77" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C76" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C75" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C74" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C73" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C72" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C71" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C70" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C69" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C68" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C67" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C66" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C65" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C64" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C63" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C61" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C59" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C58" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C57" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C56" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C53" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C5" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C6" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C7" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C8" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C9" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C90" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C49" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C48" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C47" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C46" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C45" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C44" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C43" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C42" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C41" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C40" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C39" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C38" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C37" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C36" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C10" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C11" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C12" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C13" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C35" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C34" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C33" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C32" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C31" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C30" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C29" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C28" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C27" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C26" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C25" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C24" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C23" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C22" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C21" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C20" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C19" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C18" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C17" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C16" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C15" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C14" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId91"/>
@@ -2569,24 +2605,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
